--- a/pred_ohlcv/54/2019-10-16 FX ohlcv.xlsx
+++ b/pred_ohlcv/54/2019-10-16 FX ohlcv.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H129"/>
+  <dimension ref="A1:I109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,7 +399,12 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>high_check</t>
         </is>
       </c>
     </row>
@@ -411,21 +416,24 @@
         <v>136</v>
       </c>
       <c r="C2" t="n">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D2" t="n">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E2" t="n">
         <v>136</v>
       </c>
       <c r="F2" t="n">
-        <v>11628.8198</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>129.9333333333333</v>
+        <v>129.8333333333333</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -434,25 +442,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
+        <v>136</v>
+      </c>
+      <c r="C3" t="n">
         <v>137</v>
       </c>
-      <c r="C3" t="n">
-        <v>136</v>
-      </c>
       <c r="D3" t="n">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E3" t="n">
         <v>136</v>
       </c>
       <c r="F3" t="n">
-        <v>29932.5919</v>
+        <v>11628.8198</v>
       </c>
       <c r="G3" t="n">
-        <v>130.05</v>
+        <v>129.9333333333333</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -460,25 +471,28 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C4" t="n">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D4" t="n">
         <v>138</v>
       </c>
       <c r="E4" t="n">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F4" t="n">
+        <v>29932.5919</v>
+      </c>
+      <c r="G4" t="n">
+        <v>130.05</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>1</v>
-      </c>
-      <c r="G4" t="n">
-        <v>130.15</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -498,12 +512,15 @@
         <v>138</v>
       </c>
       <c r="F5" t="n">
-        <v>17093.0724</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>130.3</v>
+        <v>130.15</v>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -515,22 +532,25 @@
         <v>138</v>
       </c>
       <c r="C6" t="n">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D6" t="n">
         <v>138</v>
       </c>
       <c r="E6" t="n">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="F6" t="n">
-        <v>18428.657</v>
+        <v>17093.0724</v>
       </c>
       <c r="G6" t="n">
-        <v>130.3833333333333</v>
+        <v>130.3</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -538,25 +558,28 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C7" t="n">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="D7" t="n">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E7" t="n">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="F7" t="n">
-        <v>3757.808479285714</v>
+        <v>18428.657</v>
       </c>
       <c r="G7" t="n">
-        <v>130.5833333333333</v>
+        <v>130.3833333333333</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -573,15 +596,18 @@
         <v>140</v>
       </c>
       <c r="E8" t="n">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="F8" t="n">
-        <v>37606.00612071429</v>
+        <v>3757.808479285714</v>
       </c>
       <c r="G8" t="n">
-        <v>130.7166666666667</v>
+        <v>130.5833333333333</v>
       </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -590,7 +616,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C9" t="n">
         <v>140</v>
@@ -599,15 +625,18 @@
         <v>140</v>
       </c>
       <c r="E9" t="n">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F9" t="n">
-        <v>88619.06419999999</v>
+        <v>37606.00612071429</v>
       </c>
       <c r="G9" t="n">
-        <v>130.8666666666667</v>
+        <v>130.7166666666667</v>
       </c>
       <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -616,25 +645,28 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C10" t="n">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D10" t="n">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E10" t="n">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F10" t="n">
-        <v>30275.19850851064</v>
+        <v>88619.06419999999</v>
       </c>
       <c r="G10" t="n">
-        <v>131.0333333333333</v>
+        <v>130.8666666666667</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -645,22 +677,25 @@
         <v>141</v>
       </c>
       <c r="C11" t="n">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D11" t="n">
         <v>141</v>
       </c>
       <c r="E11" t="n">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="F11" t="n">
-        <v>51832.30615071428</v>
+        <v>30275.19850851064</v>
       </c>
       <c r="G11" t="n">
-        <v>131.1833333333333</v>
+        <v>131.0333333333333</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -668,24 +703,27 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C12" t="n">
         <v>140</v>
       </c>
       <c r="D12" t="n">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E12" t="n">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F12" t="n">
-        <v>2776.825</v>
+        <v>51832.30615071428</v>
       </c>
       <c r="G12" t="n">
-        <v>131.3333333333333</v>
+        <v>131.1833333333333</v>
       </c>
       <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -694,24 +732,27 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C13" t="n">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D13" t="n">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E13" t="n">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F13" t="n">
-        <v>3531.4751</v>
+        <v>2776.825</v>
       </c>
       <c r="G13" t="n">
-        <v>131.5</v>
+        <v>131.3333333333333</v>
       </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -720,24 +761,27 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C14" t="n">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D14" t="n">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E14" t="n">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F14" t="n">
-        <v>5600</v>
+        <v>3531.4751</v>
       </c>
       <c r="G14" t="n">
-        <v>131.6666666666667</v>
+        <v>131.5</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -758,12 +802,15 @@
         <v>140</v>
       </c>
       <c r="F15" t="n">
-        <v>493.2565</v>
+        <v>5600</v>
       </c>
       <c r="G15" t="n">
-        <v>131.8333333333333</v>
+        <v>131.6666666666667</v>
       </c>
       <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -781,15 +828,18 @@
         <v>140</v>
       </c>
       <c r="E16" t="n">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F16" t="n">
-        <v>11613.9934</v>
+        <v>493.2565</v>
       </c>
       <c r="G16" t="n">
-        <v>132</v>
+        <v>131.8333333333333</v>
       </c>
       <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -807,15 +857,18 @@
         <v>140</v>
       </c>
       <c r="E17" t="n">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F17" t="n">
-        <v>3302.3944</v>
+        <v>11613.9934</v>
       </c>
       <c r="G17" t="n">
-        <v>132.1833333333333</v>
+        <v>132</v>
       </c>
       <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -827,21 +880,24 @@
         <v>140</v>
       </c>
       <c r="C18" t="n">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D18" t="n">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E18" t="n">
         <v>140</v>
       </c>
       <c r="F18" t="n">
-        <v>4859.7569</v>
+        <v>3302.3944</v>
       </c>
       <c r="G18" t="n">
-        <v>132.3833333333333</v>
+        <v>132.1833333333333</v>
       </c>
       <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -850,24 +906,27 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
+        <v>140</v>
+      </c>
+      <c r="C19" t="n">
         <v>141</v>
       </c>
-      <c r="C19" t="n">
-        <v>142</v>
-      </c>
       <c r="D19" t="n">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E19" t="n">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F19" t="n">
-        <v>9387.236047887323</v>
+        <v>4859.7569</v>
       </c>
       <c r="G19" t="n">
-        <v>132.6166666666667</v>
+        <v>132.3833333333333</v>
       </c>
       <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -876,7 +935,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C20" t="n">
         <v>142</v>
@@ -885,15 +944,18 @@
         <v>142</v>
       </c>
       <c r="E20" t="n">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F20" t="n">
-        <v>1049.2887</v>
+        <v>9387.236047887323</v>
       </c>
       <c r="G20" t="n">
-        <v>132.85</v>
+        <v>132.6166666666667</v>
       </c>
       <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -914,12 +976,15 @@
         <v>142</v>
       </c>
       <c r="F21" t="n">
-        <v>574.4435999999999</v>
+        <v>1049.2887</v>
       </c>
       <c r="G21" t="n">
-        <v>133.1</v>
+        <v>132.85</v>
       </c>
       <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -928,24 +993,27 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C22" t="n">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D22" t="n">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E22" t="n">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F22" t="n">
-        <v>2635.6435</v>
+        <v>574.4435999999999</v>
       </c>
       <c r="G22" t="n">
-        <v>133.3</v>
+        <v>133.1</v>
       </c>
       <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -954,24 +1022,27 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C23" t="n">
         <v>140</v>
       </c>
       <c r="D23" t="n">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E23" t="n">
         <v>140</v>
       </c>
       <c r="F23" t="n">
-        <v>8435.8951</v>
+        <v>2635.6435</v>
       </c>
       <c r="G23" t="n">
-        <v>133.5166666666667</v>
+        <v>133.3</v>
       </c>
       <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -992,12 +1063,15 @@
         <v>140</v>
       </c>
       <c r="F24" t="n">
-        <v>2116.068</v>
+        <v>8435.8951</v>
       </c>
       <c r="G24" t="n">
-        <v>133.7166666666667</v>
+        <v>133.5166666666667</v>
       </c>
       <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1006,24 +1080,27 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C25" t="n">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="D25" t="n">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E25" t="n">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="F25" t="n">
-        <v>23787.2826</v>
+        <v>2116.068</v>
       </c>
       <c r="G25" t="n">
-        <v>133.8</v>
+        <v>133.7166666666667</v>
       </c>
       <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1032,24 +1109,27 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C26" t="n">
         <v>134</v>
       </c>
       <c r="D26" t="n">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E26" t="n">
         <v>134</v>
       </c>
       <c r="F26" t="n">
-        <v>105.0449</v>
+        <v>23787.2826</v>
       </c>
       <c r="G26" t="n">
-        <v>133.8833333333333</v>
+        <v>133.8</v>
       </c>
       <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1058,24 +1138,27 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C27" t="n">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D27" t="n">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E27" t="n">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F27" t="n">
-        <v>299.9888</v>
+        <v>105.0449</v>
       </c>
       <c r="G27" t="n">
-        <v>134.0166666666667</v>
+        <v>133.8833333333333</v>
       </c>
       <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1084,7 +1167,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C28" t="n">
         <v>135</v>
@@ -1093,15 +1176,18 @@
         <v>135</v>
       </c>
       <c r="E28" t="n">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F28" t="n">
-        <v>16004.9263</v>
+        <v>299.9888</v>
       </c>
       <c r="G28" t="n">
-        <v>134.1166666666667</v>
+        <v>134.0166666666667</v>
       </c>
       <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1110,24 +1196,27 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C29" t="n">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D29" t="n">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E29" t="n">
         <v>133</v>
       </c>
       <c r="F29" t="n">
-        <v>20405.3673</v>
+        <v>16004.9263</v>
       </c>
       <c r="G29" t="n">
-        <v>134.1833333333333</v>
+        <v>134.1166666666667</v>
       </c>
       <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1148,12 +1237,15 @@
         <v>133</v>
       </c>
       <c r="F30" t="n">
-        <v>5810.7727</v>
+        <v>20405.3673</v>
       </c>
       <c r="G30" t="n">
-        <v>134.25</v>
+        <v>134.1833333333333</v>
       </c>
       <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1174,12 +1266,15 @@
         <v>133</v>
       </c>
       <c r="F31" t="n">
-        <v>13420.5848</v>
+        <v>5810.7727</v>
       </c>
       <c r="G31" t="n">
-        <v>134.3166666666667</v>
+        <v>134.25</v>
       </c>
       <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1191,21 +1286,24 @@
         <v>133</v>
       </c>
       <c r="C32" t="n">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D32" t="n">
         <v>133</v>
       </c>
       <c r="E32" t="n">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F32" t="n">
-        <v>10270.3904</v>
+        <v>13420.5848</v>
       </c>
       <c r="G32" t="n">
-        <v>134.3666666666667</v>
+        <v>134.3166666666667</v>
       </c>
       <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1214,24 +1312,27 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C33" t="n">
         <v>132</v>
       </c>
       <c r="D33" t="n">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E33" t="n">
         <v>132</v>
       </c>
       <c r="F33" t="n">
-        <v>4632.8888</v>
+        <v>10270.3904</v>
       </c>
       <c r="G33" t="n">
-        <v>134.4166666666667</v>
+        <v>134.3666666666667</v>
       </c>
       <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1240,24 +1341,27 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C34" t="n">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D34" t="n">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E34" t="n">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F34" t="n">
-        <v>4333.998</v>
+        <v>4632.8888</v>
       </c>
       <c r="G34" t="n">
-        <v>134.4333333333333</v>
+        <v>134.4166666666667</v>
       </c>
       <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1266,24 +1370,27 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C35" t="n">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D35" t="n">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E35" t="n">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F35" t="n">
-        <v>1771.1514</v>
+        <v>4333.998</v>
       </c>
       <c r="G35" t="n">
-        <v>134.4833333333333</v>
+        <v>134.4333333333333</v>
       </c>
       <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1292,24 +1399,27 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C36" t="n">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D36" t="n">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E36" t="n">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F36" t="n">
-        <v>14487.4119</v>
+        <v>1771.1514</v>
       </c>
       <c r="G36" t="n">
         <v>134.4833333333333</v>
       </c>
       <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1318,24 +1428,27 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C37" t="n">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D37" t="n">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E37" t="n">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F37" t="n">
-        <v>1399.5572</v>
+        <v>14487.4119</v>
       </c>
       <c r="G37" t="n">
-        <v>134.4666666666667</v>
+        <v>134.4833333333333</v>
       </c>
       <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1347,21 +1460,24 @@
         <v>129</v>
       </c>
       <c r="C38" t="n">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D38" t="n">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E38" t="n">
         <v>129</v>
       </c>
       <c r="F38" t="n">
-        <v>1400.6906</v>
+        <v>1399.5572</v>
       </c>
       <c r="G38" t="n">
-        <v>134.5</v>
+        <v>134.4666666666667</v>
       </c>
       <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1370,24 +1486,27 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C39" t="n">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D39" t="n">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E39" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F39" t="n">
-        <v>4242.8131</v>
+        <v>1400.6906</v>
       </c>
       <c r="G39" t="n">
-        <v>134.5333333333333</v>
+        <v>134.5</v>
       </c>
       <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1396,24 +1515,27 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C40" t="n">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D40" t="n">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E40" t="n">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F40" t="n">
-        <v>1</v>
+        <v>4242.8131</v>
       </c>
       <c r="G40" t="n">
-        <v>134.6</v>
+        <v>134.5333333333333</v>
       </c>
       <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1434,12 +1556,15 @@
         <v>132</v>
       </c>
       <c r="F41" t="n">
-        <v>333.6893</v>
+        <v>1</v>
       </c>
       <c r="G41" t="n">
-        <v>134.6833333333333</v>
+        <v>134.6</v>
       </c>
       <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1448,24 +1573,27 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C42" t="n">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D42" t="n">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E42" t="n">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F42" t="n">
-        <v>22.0131</v>
+        <v>333.6893</v>
       </c>
       <c r="G42" t="n">
-        <v>134.7166666666667</v>
+        <v>134.6833333333333</v>
       </c>
       <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1486,12 +1614,15 @@
         <v>129</v>
       </c>
       <c r="F43" t="n">
-        <v>54.9573</v>
+        <v>22.0131</v>
       </c>
       <c r="G43" t="n">
-        <v>134.7333333333333</v>
+        <v>134.7166666666667</v>
       </c>
       <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1500,24 +1631,27 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C44" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D44" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E44" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F44" t="n">
-        <v>391</v>
+        <v>54.9573</v>
       </c>
       <c r="G44" t="n">
-        <v>134.7666666666667</v>
+        <v>134.7333333333333</v>
       </c>
       <c r="H44" t="n">
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1526,24 +1660,27 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C45" t="n">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D45" t="n">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E45" t="n">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F45" t="n">
-        <v>3226.2421</v>
+        <v>391</v>
       </c>
       <c r="G45" t="n">
         <v>134.7666666666667</v>
       </c>
       <c r="H45" t="n">
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1552,24 +1689,27 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C46" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D46" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E46" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F46" t="n">
-        <v>510.0006</v>
+        <v>3226.2421</v>
       </c>
       <c r="G46" t="n">
-        <v>134.7333333333333</v>
+        <v>134.7666666666667</v>
       </c>
       <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1578,24 +1718,27 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C47" t="n">
         <v>127</v>
       </c>
       <c r="D47" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E47" t="n">
         <v>127</v>
       </c>
       <c r="F47" t="n">
-        <v>9.015499999999999</v>
+        <v>510.0006</v>
       </c>
       <c r="G47" t="n">
-        <v>134.7</v>
+        <v>134.7333333333333</v>
       </c>
       <c r="H47" t="n">
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1616,12 +1759,15 @@
         <v>127</v>
       </c>
       <c r="F48" t="n">
-        <v>3997.2596</v>
+        <v>9.015499999999999</v>
       </c>
       <c r="G48" t="n">
-        <v>134.6333333333333</v>
+        <v>134.7</v>
       </c>
       <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1642,12 +1788,15 @@
         <v>127</v>
       </c>
       <c r="F49" t="n">
-        <v>296.0742</v>
+        <v>3997.2596</v>
       </c>
       <c r="G49" t="n">
-        <v>134.5666666666667</v>
+        <v>134.6333333333333</v>
       </c>
       <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1659,21 +1808,24 @@
         <v>127</v>
       </c>
       <c r="C50" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D50" t="n">
         <v>127</v>
       </c>
       <c r="E50" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F50" t="n">
-        <v>16455.3969</v>
+        <v>296.0742</v>
       </c>
       <c r="G50" t="n">
-        <v>134.5166666666667</v>
+        <v>134.5666666666667</v>
       </c>
       <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1685,21 +1837,24 @@
         <v>127</v>
       </c>
       <c r="C51" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D51" t="n">
         <v>127</v>
       </c>
       <c r="E51" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F51" t="n">
-        <v>1</v>
+        <v>16455.3969</v>
       </c>
       <c r="G51" t="n">
-        <v>134.45</v>
+        <v>134.5166666666667</v>
       </c>
       <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1708,24 +1863,27 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C52" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D52" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E52" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F52" t="n">
-        <v>11112.5717</v>
+        <v>1</v>
       </c>
       <c r="G52" t="n">
-        <v>134.4</v>
+        <v>134.45</v>
       </c>
       <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1734,24 +1892,27 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C53" t="n">
         <v>126</v>
       </c>
       <c r="D53" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E53" t="n">
         <v>126</v>
       </c>
       <c r="F53" t="n">
-        <v>3958.7108</v>
+        <v>11112.5717</v>
       </c>
       <c r="G53" t="n">
-        <v>134.3166666666667</v>
+        <v>134.4</v>
       </c>
       <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1763,21 +1924,24 @@
         <v>127</v>
       </c>
       <c r="C54" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D54" t="n">
         <v>127</v>
       </c>
       <c r="E54" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F54" t="n">
-        <v>882.0624</v>
+        <v>3958.7108</v>
       </c>
       <c r="G54" t="n">
-        <v>134.25</v>
+        <v>134.3166666666667</v>
       </c>
       <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1798,12 +1962,15 @@
         <v>127</v>
       </c>
       <c r="F55" t="n">
-        <v>260.6951</v>
+        <v>882.0624</v>
       </c>
       <c r="G55" t="n">
-        <v>134.15</v>
+        <v>134.25</v>
       </c>
       <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1815,21 +1982,24 @@
         <v>127</v>
       </c>
       <c r="C56" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D56" t="n">
         <v>127</v>
       </c>
       <c r="E56" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F56" t="n">
-        <v>11247.9519</v>
+        <v>260.6951</v>
       </c>
       <c r="G56" t="n">
-        <v>134.0333333333333</v>
+        <v>134.15</v>
       </c>
       <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1838,24 +2008,27 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C57" t="n">
         <v>126</v>
       </c>
       <c r="D57" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E57" t="n">
         <v>126</v>
       </c>
       <c r="F57" t="n">
-        <v>12206.1401</v>
+        <v>11247.9519</v>
       </c>
       <c r="G57" t="n">
-        <v>133.9166666666667</v>
+        <v>134.0333333333333</v>
       </c>
       <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1864,24 +2037,27 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C58" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D58" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E58" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F58" t="n">
-        <v>147.8282</v>
+        <v>12206.1401</v>
       </c>
       <c r="G58" t="n">
-        <v>133.8</v>
+        <v>133.9166666666667</v>
       </c>
       <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1890,24 +2066,27 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C59" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D59" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E59" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F59" t="n">
-        <v>18373.5656</v>
+        <v>147.8282</v>
       </c>
       <c r="G59" t="n">
-        <v>133.65</v>
+        <v>133.8</v>
       </c>
       <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1919,21 +2098,24 @@
         <v>126</v>
       </c>
       <c r="C60" t="n">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D60" t="n">
         <v>126</v>
       </c>
       <c r="E60" t="n">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F60" t="n">
-        <v>54660.6658</v>
+        <v>18373.5656</v>
       </c>
       <c r="G60" t="n">
-        <v>133.4833333333333</v>
+        <v>133.65</v>
       </c>
       <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1942,24 +2124,27 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
+        <v>126</v>
+      </c>
+      <c r="C61" t="n">
         <v>125</v>
       </c>
-      <c r="C61" t="n">
-        <v>124</v>
-      </c>
       <c r="D61" t="n">
+        <v>126</v>
+      </c>
+      <c r="E61" t="n">
         <v>125</v>
       </c>
-      <c r="E61" t="n">
-        <v>124</v>
-      </c>
       <c r="F61" t="n">
-        <v>34989.8544</v>
+        <v>54660.6658</v>
       </c>
       <c r="G61" t="n">
-        <v>133.2833333333333</v>
+        <v>133.4833333333333</v>
       </c>
       <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1968,24 +2153,27 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C62" t="n">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D62" t="n">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E62" t="n">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="F62" t="n">
-        <v>95555.4189</v>
+        <v>34989.8544</v>
       </c>
       <c r="G62" t="n">
-        <v>133</v>
+        <v>133.2833333333333</v>
       </c>
       <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1994,24 +2182,27 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C63" t="n">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D63" t="n">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E63" t="n">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F63" t="n">
-        <v>1</v>
+        <v>95555.4189</v>
       </c>
       <c r="G63" t="n">
-        <v>132.8166666666667</v>
+        <v>133</v>
       </c>
       <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2020,24 +2211,27 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C64" t="n">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D64" t="n">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E64" t="n">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F64" t="n">
-        <v>51344.354</v>
+        <v>1</v>
       </c>
       <c r="G64" t="n">
-        <v>132.55</v>
+        <v>132.8166666666667</v>
       </c>
       <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2046,24 +2240,27 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C65" t="n">
         <v>122</v>
       </c>
       <c r="D65" t="n">
+        <v>123</v>
+      </c>
+      <c r="E65" t="n">
         <v>122</v>
       </c>
-      <c r="E65" t="n">
-        <v>120</v>
-      </c>
       <c r="F65" t="n">
-        <v>27667.9559</v>
+        <v>51344.354</v>
       </c>
       <c r="G65" t="n">
-        <v>132.2833333333333</v>
+        <v>132.55</v>
       </c>
       <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2072,7 +2269,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C66" t="n">
         <v>122</v>
@@ -2081,15 +2278,18 @@
         <v>122</v>
       </c>
       <c r="E66" t="n">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F66" t="n">
-        <v>52607.8292</v>
+        <v>27667.9559</v>
       </c>
       <c r="G66" t="n">
-        <v>132.0833333333333</v>
+        <v>132.2833333333333</v>
       </c>
       <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2098,24 +2298,27 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C67" t="n">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D67" t="n">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E67" t="n">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F67" t="n">
-        <v>306.0202</v>
+        <v>52607.8292</v>
       </c>
       <c r="G67" t="n">
-        <v>131.8</v>
+        <v>132.0833333333333</v>
       </c>
       <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2124,24 +2327,27 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C68" t="n">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D68" t="n">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E68" t="n">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F68" t="n">
-        <v>3789.069</v>
+        <v>306.0202</v>
       </c>
       <c r="G68" t="n">
-        <v>131.5666666666667</v>
+        <v>131.8</v>
       </c>
       <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2150,24 +2356,27 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C69" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D69" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E69" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F69" t="n">
-        <v>2510.7283</v>
+        <v>3789.069</v>
       </c>
       <c r="G69" t="n">
-        <v>131.35</v>
+        <v>131.5666666666667</v>
       </c>
       <c r="H69" t="n">
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2188,12 +2397,15 @@
         <v>127</v>
       </c>
       <c r="F70" t="n">
-        <v>1444.9251</v>
+        <v>2510.7283</v>
       </c>
       <c r="G70" t="n">
-        <v>131.1166666666667</v>
+        <v>131.35</v>
       </c>
       <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2205,21 +2417,24 @@
         <v>127</v>
       </c>
       <c r="C71" t="n">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D71" t="n">
         <v>127</v>
       </c>
       <c r="E71" t="n">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F71" t="n">
-        <v>491.5162</v>
+        <v>1444.9251</v>
       </c>
       <c r="G71" t="n">
-        <v>130.8666666666667</v>
+        <v>131.1166666666667</v>
       </c>
       <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2231,21 +2446,24 @@
         <v>127</v>
       </c>
       <c r="C72" t="n">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D72" t="n">
         <v>127</v>
       </c>
       <c r="E72" t="n">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F72" t="n">
-        <v>1</v>
+        <v>491.5162</v>
       </c>
       <c r="G72" t="n">
-        <v>130.65</v>
+        <v>130.8666666666667</v>
       </c>
       <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2257,21 +2475,24 @@
         <v>127</v>
       </c>
       <c r="C73" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D73" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E73" t="n">
         <v>127</v>
       </c>
       <c r="F73" t="n">
-        <v>112</v>
+        <v>1</v>
       </c>
       <c r="G73" t="n">
-        <v>130.4333333333333</v>
+        <v>130.65</v>
       </c>
       <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2280,24 +2501,27 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C74" t="n">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D74" t="n">
         <v>128</v>
       </c>
       <c r="E74" t="n">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F74" t="n">
-        <v>21</v>
+        <v>112</v>
       </c>
       <c r="G74" t="n">
-        <v>130.1833333333333</v>
+        <v>130.4333333333333</v>
       </c>
       <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2318,12 +2542,15 @@
         <v>125</v>
       </c>
       <c r="F75" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="G75" t="n">
-        <v>129.9333333333333</v>
+        <v>130.1833333333333</v>
       </c>
       <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2335,21 +2562,24 @@
         <v>128</v>
       </c>
       <c r="C76" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D76" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E76" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F76" t="n">
-        <v>6890</v>
+        <v>5</v>
       </c>
       <c r="G76" t="n">
-        <v>129.7</v>
+        <v>129.9333333333333</v>
       </c>
       <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2358,24 +2588,27 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C77" t="n">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D77" t="n">
         <v>129</v>
       </c>
       <c r="E77" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F77" t="n">
-        <v>5</v>
+        <v>6890</v>
       </c>
       <c r="G77" t="n">
-        <v>129.5166666666667</v>
+        <v>129.7</v>
       </c>
       <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2396,12 +2629,15 @@
         <v>127</v>
       </c>
       <c r="F78" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G78" t="n">
-        <v>129.3166666666667</v>
+        <v>129.5166666666667</v>
       </c>
       <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2410,24 +2646,27 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C79" t="n">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D79" t="n">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E79" t="n">
         <v>127</v>
       </c>
       <c r="F79" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G79" t="n">
-        <v>129.0666666666667</v>
+        <v>129.3166666666667</v>
       </c>
       <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2436,24 +2675,27 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C80" t="n">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D80" t="n">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E80" t="n">
         <v>127</v>
       </c>
       <c r="F80" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G80" t="n">
-        <v>128.85</v>
+        <v>129.0666666666667</v>
       </c>
       <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2462,7 +2704,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C81" t="n">
         <v>129</v>
@@ -2474,12 +2716,15 @@
         <v>127</v>
       </c>
       <c r="F81" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G81" t="n">
-        <v>128.6333333333333</v>
+        <v>128.85</v>
       </c>
       <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2491,7 +2736,7 @@
         <v>127</v>
       </c>
       <c r="C82" t="n">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D82" t="n">
         <v>129</v>
@@ -2500,12 +2745,15 @@
         <v>127</v>
       </c>
       <c r="F82" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G82" t="n">
-        <v>128.4166666666667</v>
+        <v>128.6333333333333</v>
       </c>
       <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2514,10 +2762,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C83" t="n">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D83" t="n">
         <v>129</v>
@@ -2526,12 +2774,15 @@
         <v>127</v>
       </c>
       <c r="F83" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G83" t="n">
-        <v>128.2333333333333</v>
+        <v>128.4166666666667</v>
       </c>
       <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2540,7 +2791,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C84" t="n">
         <v>129</v>
@@ -2552,12 +2803,15 @@
         <v>127</v>
       </c>
       <c r="F84" t="n">
-        <v>602</v>
+        <v>11</v>
       </c>
       <c r="G84" t="n">
-        <v>128.05</v>
+        <v>128.2333333333333</v>
       </c>
       <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2566,7 +2820,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C85" t="n">
         <v>129</v>
@@ -2578,12 +2832,15 @@
         <v>127</v>
       </c>
       <c r="F85" t="n">
-        <v>1301</v>
+        <v>602</v>
       </c>
       <c r="G85" t="n">
-        <v>127.9666666666667</v>
+        <v>128.05</v>
       </c>
       <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2592,7 +2849,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C86" t="n">
         <v>129</v>
@@ -2601,15 +2858,18 @@
         <v>129</v>
       </c>
       <c r="E86" t="n">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F86" t="n">
-        <v>300</v>
+        <v>1301</v>
       </c>
       <c r="G86" t="n">
-        <v>127.8833333333333</v>
+        <v>127.9666666666667</v>
       </c>
       <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2618,24 +2878,27 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C87" t="n">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D87" t="n">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E87" t="n">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F87" t="n">
-        <v>1</v>
+        <v>300</v>
       </c>
       <c r="G87" t="n">
-        <v>127.75</v>
+        <v>127.8833333333333</v>
       </c>
       <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2644,24 +2907,27 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C88" t="n">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D88" t="n">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E88" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F88" t="n">
-        <v>401</v>
+        <v>1</v>
       </c>
       <c r="G88" t="n">
-        <v>127.65</v>
+        <v>127.75</v>
       </c>
       <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2670,24 +2936,27 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C89" t="n">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D89" t="n">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E89" t="n">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F89" t="n">
-        <v>17436.0701</v>
+        <v>401</v>
       </c>
       <c r="G89" t="n">
-        <v>127.5333333333333</v>
+        <v>127.65</v>
       </c>
       <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2696,24 +2965,27 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C90" t="n">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D90" t="n">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E90" t="n">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F90" t="n">
-        <v>1</v>
+        <v>17436.0701</v>
       </c>
       <c r="G90" t="n">
-        <v>127.4666666666667</v>
+        <v>127.5333333333333</v>
       </c>
       <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2722,24 +2994,27 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C91" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D91" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E91" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F91" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G91" t="n">
-        <v>127.3833333333333</v>
+        <v>127.4666666666667</v>
       </c>
       <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2748,7 +3023,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C92" t="n">
         <v>128</v>
@@ -2757,15 +3032,18 @@
         <v>128</v>
       </c>
       <c r="E92" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F92" t="n">
-        <v>151.7632</v>
+        <v>10</v>
       </c>
       <c r="G92" t="n">
-        <v>127.3166666666667</v>
+        <v>127.3833333333333</v>
       </c>
       <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2777,21 +3055,24 @@
         <v>127</v>
       </c>
       <c r="C93" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D93" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E93" t="n">
         <v>127</v>
       </c>
       <c r="F93" t="n">
-        <v>51</v>
+        <v>151.7632</v>
       </c>
       <c r="G93" t="n">
-        <v>127.2333333333333</v>
+        <v>127.3166666666667</v>
       </c>
       <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2812,12 +3093,15 @@
         <v>127</v>
       </c>
       <c r="F94" t="n">
-        <v>8.925000000000001</v>
+        <v>51</v>
       </c>
       <c r="G94" t="n">
-        <v>127.1833333333333</v>
+        <v>127.2333333333333</v>
       </c>
       <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2826,24 +3110,27 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C95" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D95" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E95" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F95" t="n">
-        <v>1</v>
+        <v>8.925000000000001</v>
       </c>
       <c r="G95" t="n">
-        <v>127.1166666666667</v>
+        <v>127.1833333333333</v>
       </c>
       <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2852,24 +3139,27 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C96" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D96" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E96" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F96" t="n">
-        <v>821.2308</v>
+        <v>1</v>
       </c>
       <c r="G96" t="n">
-        <v>127.0666666666667</v>
+        <v>127.1166666666667</v>
       </c>
       <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2878,24 +3168,27 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C97" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D97" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E97" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F97" t="n">
-        <v>1</v>
+        <v>821.2308</v>
       </c>
       <c r="G97" t="n">
-        <v>127.05</v>
+        <v>127.0666666666667</v>
       </c>
       <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2916,12 +3209,15 @@
         <v>128</v>
       </c>
       <c r="F98" t="n">
-        <v>10156.25</v>
+        <v>1</v>
       </c>
       <c r="G98" t="n">
-        <v>126.9833333333333</v>
+        <v>127.05</v>
       </c>
       <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2930,24 +3226,27 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C99" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D99" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E99" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F99" t="n">
-        <v>5000</v>
+        <v>10156.25</v>
       </c>
       <c r="G99" t="n">
-        <v>126.9333333333333</v>
+        <v>126.9833333333333</v>
       </c>
       <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2956,24 +3255,27 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C100" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D100" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E100" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F100" t="n">
-        <v>1</v>
+        <v>5000</v>
       </c>
       <c r="G100" t="n">
-        <v>126.8666666666667</v>
+        <v>126.9333333333333</v>
       </c>
       <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2997,9 +3299,12 @@
         <v>1</v>
       </c>
       <c r="G101" t="n">
-        <v>126.8</v>
+        <v>126.8666666666667</v>
       </c>
       <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3008,7 +3313,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C102" t="n">
         <v>128</v>
@@ -3017,15 +3322,18 @@
         <v>128</v>
       </c>
       <c r="E102" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F102" t="n">
-        <v>3.9091</v>
+        <v>1</v>
       </c>
       <c r="G102" t="n">
-        <v>126.7833333333333</v>
+        <v>126.8</v>
       </c>
       <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3037,21 +3345,24 @@
         <v>127</v>
       </c>
       <c r="C103" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D103" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E103" t="n">
         <v>127</v>
       </c>
       <c r="F103" t="n">
-        <v>180.7382</v>
+        <v>3.9091</v>
       </c>
       <c r="G103" t="n">
-        <v>126.75</v>
+        <v>126.7833333333333</v>
       </c>
       <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3060,24 +3371,27 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C104" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D104" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E104" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F104" t="n">
-        <v>4597.1341</v>
+        <v>180.7382</v>
       </c>
       <c r="G104" t="n">
-        <v>126.6833333333333</v>
+        <v>126.75</v>
       </c>
       <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3086,24 +3400,27 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C105" t="n">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D105" t="n">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E105" t="n">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F105" t="n">
-        <v>1</v>
+        <v>4597.1341</v>
       </c>
       <c r="G105" t="n">
         <v>126.6833333333333</v>
       </c>
       <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3112,7 +3429,7 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C106" t="n">
         <v>128</v>
@@ -3121,15 +3438,18 @@
         <v>128</v>
       </c>
       <c r="E106" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F106" t="n">
-        <v>5378.3183</v>
+        <v>1</v>
       </c>
       <c r="G106" t="n">
-        <v>126.7</v>
+        <v>126.6833333333333</v>
       </c>
       <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3138,24 +3458,27 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C107" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D107" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E107" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F107" t="n">
-        <v>2760.9201</v>
+        <v>5378.3183</v>
       </c>
       <c r="G107" t="n">
         <v>126.7</v>
       </c>
       <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3164,24 +3487,27 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C108" t="n">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D108" t="n">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E108" t="n">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F108" t="n">
-        <v>12.8482</v>
+        <v>2760.9201</v>
       </c>
       <c r="G108" t="n">
-        <v>126.6666666666667</v>
+        <v>126.7</v>
       </c>
       <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3190,544 +3516,27 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C109" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D109" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E109" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F109" t="n">
-        <v>1</v>
+        <v>12.8482</v>
       </c>
       <c r="G109" t="n">
-        <v>126.65</v>
+        <v>126.6666666666667</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
-        <v>126</v>
-      </c>
-      <c r="C110" t="n">
-        <v>126</v>
-      </c>
-      <c r="D110" t="n">
-        <v>126</v>
-      </c>
-      <c r="E110" t="n">
-        <v>126</v>
-      </c>
-      <c r="F110" t="n">
-        <v>9811.306699999999</v>
-      </c>
-      <c r="G110" t="n">
-        <v>126.65</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>127</v>
-      </c>
-      <c r="C111" t="n">
-        <v>127</v>
-      </c>
-      <c r="D111" t="n">
-        <v>127</v>
-      </c>
-      <c r="E111" t="n">
-        <v>127</v>
-      </c>
-      <c r="F111" t="n">
-        <v>1</v>
-      </c>
-      <c r="G111" t="n">
-        <v>126.65</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>127</v>
-      </c>
-      <c r="C112" t="n">
-        <v>127</v>
-      </c>
-      <c r="D112" t="n">
-        <v>127</v>
-      </c>
-      <c r="E112" t="n">
-        <v>127</v>
-      </c>
-      <c r="F112" t="n">
-        <v>1274</v>
-      </c>
-      <c r="G112" t="n">
-        <v>126.6666666666667</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>126</v>
-      </c>
-      <c r="C113" t="n">
-        <v>126</v>
-      </c>
-      <c r="D113" t="n">
-        <v>126</v>
-      </c>
-      <c r="E113" t="n">
-        <v>126</v>
-      </c>
-      <c r="F113" t="n">
-        <v>132.0312</v>
-      </c>
-      <c r="G113" t="n">
-        <v>126.6666666666667</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>126</v>
-      </c>
-      <c r="C114" t="n">
-        <v>125</v>
-      </c>
-      <c r="D114" t="n">
-        <v>126</v>
-      </c>
-      <c r="E114" t="n">
-        <v>125</v>
-      </c>
-      <c r="F114" t="n">
-        <v>31259.0241</v>
-      </c>
-      <c r="G114" t="n">
-        <v>126.6333333333333</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>125</v>
-      </c>
-      <c r="C115" t="n">
-        <v>125</v>
-      </c>
-      <c r="D115" t="n">
-        <v>125</v>
-      </c>
-      <c r="E115" t="n">
-        <v>125</v>
-      </c>
-      <c r="F115" t="n">
-        <v>4979.7536</v>
-      </c>
-      <c r="G115" t="n">
-        <v>126.6</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>125</v>
-      </c>
-      <c r="C116" t="n">
-        <v>125</v>
-      </c>
-      <c r="D116" t="n">
-        <v>125</v>
-      </c>
-      <c r="E116" t="n">
-        <v>125</v>
-      </c>
-      <c r="F116" t="n">
-        <v>20216.3552</v>
-      </c>
-      <c r="G116" t="n">
-        <v>126.5833333333333</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>125</v>
-      </c>
-      <c r="C117" t="n">
-        <v>125</v>
-      </c>
-      <c r="D117" t="n">
-        <v>125</v>
-      </c>
-      <c r="E117" t="n">
-        <v>125</v>
-      </c>
-      <c r="F117" t="n">
-        <v>2325.92</v>
-      </c>
-      <c r="G117" t="n">
-        <v>126.5666666666667</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>125</v>
-      </c>
-      <c r="C118" t="n">
-        <v>126</v>
-      </c>
-      <c r="D118" t="n">
-        <v>126</v>
-      </c>
-      <c r="E118" t="n">
-        <v>125</v>
-      </c>
-      <c r="F118" t="n">
-        <v>543.275</v>
-      </c>
-      <c r="G118" t="n">
-        <v>126.55</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>126</v>
-      </c>
-      <c r="C119" t="n">
-        <v>126</v>
-      </c>
-      <c r="D119" t="n">
-        <v>126</v>
-      </c>
-      <c r="E119" t="n">
-        <v>126</v>
-      </c>
-      <c r="F119" t="n">
-        <v>1</v>
-      </c>
-      <c r="G119" t="n">
-        <v>126.55</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>125</v>
-      </c>
-      <c r="C120" t="n">
-        <v>125</v>
-      </c>
-      <c r="D120" t="n">
-        <v>125</v>
-      </c>
-      <c r="E120" t="n">
-        <v>125</v>
-      </c>
-      <c r="F120" t="n">
-        <v>199.5</v>
-      </c>
-      <c r="G120" t="n">
-        <v>126.55</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>126</v>
-      </c>
-      <c r="C121" t="n">
-        <v>126</v>
-      </c>
-      <c r="D121" t="n">
-        <v>126</v>
-      </c>
-      <c r="E121" t="n">
-        <v>126</v>
-      </c>
-      <c r="F121" t="n">
-        <v>350</v>
-      </c>
-      <c r="G121" t="n">
-        <v>126.5833333333333</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>126</v>
-      </c>
-      <c r="C122" t="n">
-        <v>126</v>
-      </c>
-      <c r="D122" t="n">
-        <v>126</v>
-      </c>
-      <c r="E122" t="n">
-        <v>126</v>
-      </c>
-      <c r="F122" t="n">
-        <v>8320.193300000001</v>
-      </c>
-      <c r="G122" t="n">
-        <v>126.6833333333333</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>126</v>
-      </c>
-      <c r="C123" t="n">
-        <v>127</v>
-      </c>
-      <c r="D123" t="n">
-        <v>127</v>
-      </c>
-      <c r="E123" t="n">
-        <v>126</v>
-      </c>
-      <c r="F123" t="n">
-        <v>3</v>
-      </c>
-      <c r="G123" t="n">
-        <v>126.7166666666667</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>125</v>
-      </c>
-      <c r="C124" t="n">
-        <v>125</v>
-      </c>
-      <c r="D124" t="n">
-        <v>125</v>
-      </c>
-      <c r="E124" t="n">
-        <v>125</v>
-      </c>
-      <c r="F124" t="n">
-        <v>5959.2431</v>
-      </c>
-      <c r="G124" t="n">
-        <v>126.7666666666667</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>127</v>
-      </c>
-      <c r="C125" t="n">
-        <v>127</v>
-      </c>
-      <c r="D125" t="n">
-        <v>127</v>
-      </c>
-      <c r="E125" t="n">
-        <v>127</v>
-      </c>
-      <c r="F125" t="n">
-        <v>1</v>
-      </c>
-      <c r="G125" t="n">
-        <v>126.85</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>126</v>
-      </c>
-      <c r="C126" t="n">
-        <v>126</v>
-      </c>
-      <c r="D126" t="n">
-        <v>126</v>
-      </c>
-      <c r="E126" t="n">
-        <v>126</v>
-      </c>
-      <c r="F126" t="n">
-        <v>1003.2943</v>
-      </c>
-      <c r="G126" t="n">
-        <v>126.9166666666667</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>125</v>
-      </c>
-      <c r="C127" t="n">
-        <v>126</v>
-      </c>
-      <c r="D127" t="n">
-        <v>126</v>
-      </c>
-      <c r="E127" t="n">
-        <v>125</v>
-      </c>
-      <c r="F127" t="n">
-        <v>7715.8448</v>
-      </c>
-      <c r="G127" t="n">
-        <v>126.9666666666667</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>127</v>
-      </c>
-      <c r="C128" t="n">
-        <v>127</v>
-      </c>
-      <c r="D128" t="n">
-        <v>127</v>
-      </c>
-      <c r="E128" t="n">
-        <v>127</v>
-      </c>
-      <c r="F128" t="n">
-        <v>1</v>
-      </c>
-      <c r="G128" t="n">
-        <v>126.9833333333333</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>127</v>
-      </c>
-      <c r="C129" t="n">
-        <v>127</v>
-      </c>
-      <c r="D129" t="n">
-        <v>127</v>
-      </c>
-      <c r="E129" t="n">
-        <v>127</v>
-      </c>
-      <c r="F129" t="n">
-        <v>6833.0551</v>
-      </c>
-      <c r="G129" t="n">
-        <v>126.9833333333333</v>
-      </c>
-      <c r="H129" t="n">
+      <c r="I109" t="n">
         <v>0</v>
       </c>
     </row>
